--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value244.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value244.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.1348768036280648</v>
+        <v>1.178617477416992</v>
       </c>
       <c r="B1">
-        <v>0.1370093445420387</v>
+        <v>2.186071157455444</v>
       </c>
       <c r="C1">
-        <v>0.148308482085118</v>
+        <v>3.261564493179321</v>
       </c>
       <c r="D1">
-        <v>0.2148229642936883</v>
+        <v>3.616487741470337</v>
       </c>
       <c r="E1">
-        <v>0.4680621329337554</v>
+        <v>1.162784934043884</v>
       </c>
     </row>
   </sheetData>
